--- a/resources/experiment 2/metrics/MAPE/upto time/Retinopatía proliferativa (UPTO).xlsx
+++ b/resources/experiment 2/metrics/MAPE/upto time/Retinopatía proliferativa (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>208195276540471.1</v>
+        <v>3425949512112.291</v>
       </c>
       <c r="C3" t="n">
-        <v>208257318592175.5</v>
+        <v>5394536991875.498</v>
       </c>
       <c r="D3" t="n">
-        <v>208257318592175.5</v>
+        <v>399874626461374.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115215418824508.8</v>
+        <v>3255548409134.465</v>
       </c>
       <c r="C4" t="n">
-        <v>115126922367461.6</v>
+        <v>3866524938045.253</v>
       </c>
       <c r="D4" t="n">
-        <v>115126922367461.6</v>
+        <v>209156961562312.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4283415155766329</v>
+        <v>713974481241393.9</v>
       </c>
       <c r="C5" t="n">
-        <v>4283415155766329</v>
+        <v>1265807397928304</v>
       </c>
       <c r="D5" t="n">
-        <v>4283415155766329</v>
+        <v>3730740617340234</v>
       </c>
     </row>
   </sheetData>
